--- a/CostEstimate.xlsx
+++ b/CostEstimate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538105\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S538105\Desktop\health-wellness\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A3:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="4">
-        <v>5850</v>
+        <v>5040</v>
       </c>
       <c r="E8" s="4">
-        <v>35100</v>
+        <v>30240</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">

--- a/CostEstimate.xlsx
+++ b/CostEstimate.xlsx
@@ -457,7 +457,7 @@
   <dimension ref="A3:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +547,9 @@
       <c r="D9" s="4">
         <v>5850</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4">
+        <v>35100</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">

--- a/CostEstimate.xlsx
+++ b/CostEstimate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>WBS Categories</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Total cost(for three sprints)($)</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                     -</t>
-  </si>
-  <si>
     <t>5.Closing</t>
   </si>
   <si>
@@ -90,6 +87,12 @@
   </si>
   <si>
     <t>3.Designing</t>
+  </si>
+  <si>
+    <t>Cost Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                            -</t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,13 +117,30 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -165,12 +185,14 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -454,23 +476,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
@@ -483,20 +510,20 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -504,16 +531,16 @@
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>380</v>
       </c>
       <c r="C7" s="2">
         <v>8</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>3040</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>18240</v>
       </c>
     </row>
@@ -521,33 +548,33 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>420</v>
       </c>
       <c r="C8" s="2">
         <v>12</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>5040</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>30240</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
         <v>450</v>
       </c>
       <c r="C9" s="2">
         <v>13</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>5850</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>35100</v>
       </c>
     </row>
@@ -563,7 +590,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -578,7 +605,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -593,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -608,23 +635,23 @@
         <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>480</v>
       </c>
       <c r="C14" s="2">
         <v>10</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>4800</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>28800</v>
       </c>
     </row>
@@ -640,7 +667,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -655,7 +682,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -670,46 +697,46 @@
         <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
         <v>370</v>
       </c>
       <c r="C18" s="2">
         <v>9</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>3330</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>19980</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
         <v>395</v>
       </c>
       <c r="C19" s="2">
         <v>8</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>3160</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>18960</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>

--- a/CostEstimate.xlsx
+++ b/CostEstimate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>WBS Categories</t>
   </si>
@@ -93,6 +93,27 @@
   </si>
   <si>
     <t xml:space="preserve">                                                            -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        -</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>$/hour</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>DB Administrator</t>
+  </si>
+  <si>
+    <t>Team Lead</t>
+  </si>
+  <si>
+    <t>Full stack Developer</t>
   </si>
 </sst>
 </file>
@@ -104,7 +125,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +163,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,7 +213,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -193,6 +221,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -476,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +611,9 @@
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
@@ -597,7 +628,9 @@
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" s="2">
         <v>4</v>
       </c>
@@ -612,7 +645,9 @@
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C12" s="2">
         <v>3</v>
       </c>
@@ -627,7 +662,9 @@
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
@@ -659,7 +696,9 @@
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C15" s="2">
         <v>4</v>
       </c>
@@ -674,7 +713,9 @@
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C16" s="2">
         <v>3</v>
       </c>
@@ -689,7 +730,9 @@
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C17" s="2">
         <v>3</v>
       </c>
@@ -742,6 +785,62 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="3">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CostEstimate.xlsx
+++ b/CostEstimate.xlsx
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,11 +786,11 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="6" t="s">
         <v>25</v>
       </c>
     </row>

--- a/CostEstimate.xlsx
+++ b/CostEstimate.xlsx
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CostEstimate.xlsx
+++ b/CostEstimate.xlsx
@@ -74,9 +74,6 @@
     <t xml:space="preserve">                                           -</t>
   </si>
   <si>
-    <t>Total cost(for three sprints)($)</t>
-  </si>
-  <si>
     <t>5.Closing</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>Full stack Developer</t>
+  </si>
+  <si>
+    <t>Total cost(for six sprints)($)</t>
   </si>
 </sst>
 </file>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +524,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -553,7 +553,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>3040</v>
       </c>
       <c r="E7" s="3">
-        <v>18240</v>
+        <v>36480</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -587,12 +587,12 @@
         <v>5040</v>
       </c>
       <c r="E8" s="3">
-        <v>30240</v>
+        <v>60480</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3">
         <v>450</v>
@@ -604,7 +604,7 @@
         <v>5850</v>
       </c>
       <c r="E9" s="3">
-        <v>35100</v>
+        <v>70200</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
@@ -621,7 +621,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>4</v>
@@ -638,7 +638,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
@@ -655,7 +655,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
@@ -672,7 +672,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>4800</v>
       </c>
       <c r="E14" s="3">
-        <v>28800</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -697,7 +697,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
@@ -706,7 +706,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -714,7 +714,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
@@ -723,7 +723,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -731,7 +731,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2">
         <v>3</v>
@@ -740,12 +740,12 @@
         <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>370</v>
@@ -757,12 +757,12 @@
         <v>3330</v>
       </c>
       <c r="E18" s="3">
-        <v>19980</v>
+        <v>39960</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3">
         <v>395</v>
@@ -774,29 +774,31 @@
         <v>3160</v>
       </c>
       <c r="E19" s="3">
-        <v>18960</v>
+        <v>37920</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="3">
+        <v>302640</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="3">
         <v>80</v>
@@ -804,7 +806,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="3">
         <v>75</v>
@@ -812,7 +814,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="3">
         <v>72</v>
@@ -820,7 +822,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="3">
         <v>68</v>
@@ -828,7 +830,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="3">
         <v>68</v>
@@ -836,7 +838,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="3">
         <v>68</v>

--- a/CostEstimate.xlsx
+++ b/CostEstimate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>WBS Categories</t>
   </si>
@@ -41,9 +41,6 @@
     <t xml:space="preserve">   2.3.Design Evaluation</t>
   </si>
   <si>
-    <t>3. Execution</t>
-  </si>
-  <si>
     <t xml:space="preserve">   2.1. Wireframe the UI</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>Cost per week($)</t>
   </si>
   <si>
-    <t>2.Planning and designing</t>
-  </si>
-  <si>
     <t xml:space="preserve">   2.4.Claiming and Finalizing contract </t>
   </si>
   <si>
@@ -89,9 +83,6 @@
     <t>Cost Estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                            -</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                        -</t>
   </si>
   <si>
@@ -113,7 +104,19 @@
     <t>Full stack Developer</t>
   </si>
   <si>
-    <t>Total cost(for six sprints)($)</t>
+    <t>2.Planning</t>
+  </si>
+  <si>
+    <t>4. Execution</t>
+  </si>
+  <si>
+    <t>Total estimated cost(for six sprints)($)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                              -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -507,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,14 +520,14 @@
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -544,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -564,64 +567,64 @@
         <v>380</v>
       </c>
       <c r="C7" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3">
-        <v>3040</v>
+        <v>5320</v>
       </c>
       <c r="E7" s="3">
-        <v>36480</v>
+        <v>63840</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3">
         <v>420</v>
       </c>
       <c r="C8" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3">
-        <v>5040</v>
+        <v>7980</v>
       </c>
       <c r="E8" s="3">
-        <v>60480</v>
+        <v>95760</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <v>450</v>
       </c>
       <c r="C9" s="2">
-        <v>13</v>
+        <v>21.5</v>
       </c>
       <c r="D9" s="3">
-        <v>5850</v>
+        <v>9675</v>
       </c>
       <c r="E9" s="3">
-        <v>70200</v>
+        <v>116100</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -629,16 +632,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -646,159 +649,159 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3">
         <v>480</v>
       </c>
       <c r="C14" s="2">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3">
-        <v>4800</v>
+        <v>11040</v>
       </c>
       <c r="E14" s="3">
-        <v>57600</v>
+        <v>132480</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3">
         <v>370</v>
       </c>
       <c r="C18" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="3">
-        <v>3330</v>
+        <v>5180</v>
       </c>
       <c r="E18" s="3">
-        <v>39960</v>
+        <v>62160</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3">
         <v>395</v>
       </c>
       <c r="C19" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3">
-        <v>3160</v>
+        <v>4740</v>
       </c>
       <c r="E19" s="3">
-        <v>37920</v>
+        <v>56880</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3">
-        <v>302640</v>
+        <v>527220</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D23" s="3">
         <v>80</v>
@@ -806,7 +809,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D24" s="3">
         <v>75</v>
@@ -814,7 +817,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D25" s="3">
         <v>72</v>
@@ -822,7 +825,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3">
         <v>68</v>
@@ -830,7 +833,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D27" s="3">
         <v>68</v>
@@ -838,7 +841,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D28" s="3">
         <v>68</v>
